--- a/test-data/spreadsheet/57482-OnlyNumeric.xlsx
+++ b/test-data/spreadsheet/57482-OnlyNumeric.xlsx
@@ -13,9 +13,6 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
